--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/js_rodriguezm1234_uniandes_edu_co/Documents/Universidad/2025-2/Estructura de Datos y Algoritmos/Laboratorios/Laboratorio5-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05B1ACA-18F7-410E-B25F-5D857B990364}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data" sheetId="1" r:id="rId1"/>
@@ -465,6 +465,85 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -580,85 +659,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1209,6 +1209,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2398.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5522.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15334.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40674.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64878.57</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1857,6 +1881,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1864,7 +1889,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2700,6 +2724,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2707,7 +2732,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2894,6 +2918,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2398.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5522.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15334.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40674.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64878.57</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3282,6 +3330,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3289,7 +3338,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3864,6 +3912,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3871,7 +3920,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4446,6 +4494,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4453,7 +4502,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5028,6 +5076,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5035,7 +5084,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5605,6 +5653,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5612,7 +5661,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6187,6 +6235,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6194,7 +6243,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10678,7 +10726,7 @@
     <tabColor rgb="FF9EC4F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10780,7 +10828,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676640" cy="6289040"/>
+    <xdr:ext cx="9300754" cy="6078583"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10813,7 +10861,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="9294370" cy="6070169"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10846,7 +10894,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9301843" cy="6074229"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10879,7 +10927,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9301843" cy="6074229"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10912,7 +10960,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9301843" cy="6074229"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10945,7 +10993,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9301843" cy="6074229"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10978,7 +11026,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="9301843" cy="6074229"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11082,18 +11130,18 @@
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11101,8 +11149,8 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="2">
       <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
@@ -11414,18 +11462,18 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="11" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="28.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.15234375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="3" customWidth="1"/>
+    <col min="6" max="11" width="24.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -11439,7 +11487,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -11462,7 +11510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="14.15">
       <c r="A3" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11470,13 +11518,15 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="28">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="14.15">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -11484,7 +11534,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22">
+        <v>143.08000000000001</v>
+      </c>
       <c r="D4" s="22"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -11498,7 +11550,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22">
+        <v>556.89</v>
+      </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -11512,7 +11566,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22">
+        <v>2398.5100000000002</v>
+      </c>
       <c r="D6" s="22"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -11526,7 +11582,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="22">
+        <v>5522.75</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -11540,7 +11598,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="22">
+        <v>15334.43</v>
+      </c>
       <c r="D8" s="22"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -11554,13 +11614,15 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>40674.050000000003</v>
+      </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -11568,7 +11630,9 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <v>64878.57</v>
+      </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -11589,7 +11653,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="28.75" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -11613,7 +11677,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="14.15">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11628,7 +11692,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="14.15">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -11718,7 +11782,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -11733,7 +11797,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1"/>
     <row r="23" spans="1:8">
       <c r="A23" s="31" t="s">
         <v>5</v>
@@ -11870,119 +11934,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12231,6 +12182,119 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
@@ -12240,17 +12304,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12267,4 +12320,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/js_rodriguezm1234_uniandes_edu_co/Documents/Universidad/2025-2/Estructura de Datos y Algoritmos/Laboratorios/Laboratorio5-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05B1ACA-18F7-410E-B25F-5D857B990364}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC8F734-5ECF-4EA4-AB72-E0162D658295}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="8143" yWindow="0" windowWidth="8400" windowHeight="8623" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data" sheetId="1" r:id="rId1"/>
@@ -1206,34 +1206,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>'01-Data'!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>556.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2398.5100000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5522.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15334.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40674.050000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64878.57</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -1320,6 +1292,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2423.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5423.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18001.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42534.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77806.91</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1407,6 +1403,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>893.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1841.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8512.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13245.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70607.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109660.78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2072,10 +2092,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>'01-Data'!$C$14:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2915,34 +2931,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>'01-Data'!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>556.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2398.5100000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5522.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15334.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40674.050000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64878.57</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3026,10 +3014,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>'01-Data'!$C$14:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3524,6 +3508,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2423.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5423.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18001.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42534.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77806.91</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4106,6 +4114,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>893.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1841.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8512.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13245.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70607.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109660.78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5844,10 +5876,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>'01-Data'!$C$25:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -11462,15 +11490,15 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="28.84375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="31.15234375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.4609375" style="3" customWidth="1"/>
     <col min="6" max="11" width="24.4609375" customWidth="1"/>
@@ -11521,8 +11549,12 @@
       <c r="C3" s="28">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="28">
+        <v>2.14</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2.82</v>
+      </c>
       <c r="F3" s="29"/>
       <c r="G3" s="23"/>
     </row>
@@ -11537,8 +11569,12 @@
       <c r="C4" s="22">
         <v>143.08000000000001</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="22">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="E4" s="20">
+        <v>123.28</v>
+      </c>
       <c r="F4" s="20"/>
       <c r="G4" s="13"/>
     </row>
@@ -11553,8 +11589,12 @@
       <c r="C5" s="22">
         <v>556.89</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="22">
+        <v>596.85</v>
+      </c>
+      <c r="E5" s="20">
+        <v>893.53</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="13"/>
     </row>
@@ -11569,8 +11609,12 @@
       <c r="C6" s="22">
         <v>2398.5100000000002</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22">
+        <v>2423.6799999999998</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1841.86</v>
+      </c>
       <c r="F6" s="20"/>
       <c r="G6" s="13"/>
     </row>
@@ -11585,8 +11629,12 @@
       <c r="C7" s="22">
         <v>5522.75</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22">
+        <v>5423.01</v>
+      </c>
+      <c r="E7" s="20">
+        <v>8512.64</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="13"/>
     </row>
@@ -11601,8 +11649,12 @@
       <c r="C8" s="22">
         <v>15334.43</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="22">
+        <v>18001.13</v>
+      </c>
+      <c r="E8" s="20">
+        <v>13245.18</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="13"/>
     </row>
@@ -11617,8 +11669,12 @@
       <c r="C9" s="22">
         <v>40674.050000000003</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="22">
+        <v>42534.53</v>
+      </c>
+      <c r="E9" s="20">
+        <v>70607.94</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="13"/>
     </row>
@@ -11633,8 +11689,12 @@
       <c r="C10" s="24">
         <v>64878.57</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="24">
+        <v>77806.91</v>
+      </c>
+      <c r="E10" s="25">
+        <v>109660.78</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="14"/>
     </row>
